--- a/ASL/ASL_modalities.xlsx
+++ b/ASL/ASL_modalities.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,30 +514,30 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>324</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>23.14285714285714</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>448</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
         <v>32</v>
@@ -546,25 +546,75 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>8.75</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>64</v>
       </c>
       <c r="G5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>171</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>384</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>REMOTE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64</v>
+      </c>
+      <c r="G7" t="n">
         <v>32</v>
       </c>
     </row>

--- a/ASL/ASL_modalities.xlsx
+++ b/ASL/ASL_modalities.xlsx
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D6" t="n">
-        <v>14.25</v>
+        <v>12.73333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>384</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="7">
@@ -603,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
